--- a/ticket.xlsx
+++ b/ticket.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1456"/>
+  <dimension ref="A1:J1479"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -46905,9 +46905,745 @@
         <v/>
       </c>
     </row>
+    <row r="1457">
+      <c r="A1457" t="str">
+        <v>Ticket-01456</v>
+      </c>
+      <c r="B1457" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C1457" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1457" t="str">
+        <v>Sameer Ananta Kondilkar</v>
+      </c>
+      <c r="E1457" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1457" t="str">
+        <v xml:space="preserve">windows 10 </v>
+      </c>
+      <c r="G1457" t="str">
+        <v>Low</v>
+      </c>
+      <c r="H1457" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1457" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1457" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458" t="str">
+        <v>Ticket-01457</v>
+      </c>
+      <c r="B1458" s="1">
+        <v>45050</v>
+      </c>
+      <c r="C1458" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1458" t="str">
+        <v>Sameer Ananta Kondilkar</v>
+      </c>
+      <c r="E1458" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1458" t="str">
+        <v xml:space="preserve">Printer </v>
+      </c>
+      <c r="G1458" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1458" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1458" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1458" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" t="str">
+        <v>Ticket-01458</v>
+      </c>
+      <c r="B1459" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1459" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1459" t="str">
+        <v>Jayprakash</v>
+      </c>
+      <c r="E1459" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1459" t="str">
+        <v>Swim Install</v>
+      </c>
+      <c r="G1459" t="str">
+        <v>Low</v>
+      </c>
+      <c r="H1459" t="str">
+        <v>R9Y7RKX</v>
+      </c>
+      <c r="I1459" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1459" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460" t="str">
+        <v>Ticket-01459</v>
+      </c>
+      <c r="B1460" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1460" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1460" t="str">
+        <v>Baban Govind Kamble</v>
+      </c>
+      <c r="E1460" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1460" t="str">
+        <v>excel</v>
+      </c>
+      <c r="G1460" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1460" t="str">
+        <v>BHJCYY1</v>
+      </c>
+      <c r="I1460" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1460" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461" t="str">
+        <v>Ticket-01460</v>
+      </c>
+      <c r="B1461" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1461" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1461" t="str">
+        <v>Bhushan Chandrakant Patil</v>
+      </c>
+      <c r="E1461" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1461" t="str">
+        <v xml:space="preserve">Printing </v>
+      </c>
+      <c r="G1461" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="H1461" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1461" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1461" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462" t="str">
+        <v>Ticket-01461</v>
+      </c>
+      <c r="B1462" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1462" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1462" t="str">
+        <v>Rahul Shelke</v>
+      </c>
+      <c r="E1462" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1462" t="str">
+        <v>Excel Format</v>
+      </c>
+      <c r="G1462" t="str">
+        <v>Urgent</v>
+      </c>
+      <c r="H1462" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1462" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1462" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" t="str">
+        <v>Ticket-01462</v>
+      </c>
+      <c r="B1463" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1463" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1463" t="str">
+        <v>Balaram Rana</v>
+      </c>
+      <c r="E1463" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1463" t="str">
+        <v xml:space="preserve">Pc setup </v>
+      </c>
+      <c r="G1463" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1463" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1463" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1463" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464" t="str">
+        <v>Ticket-01463</v>
+      </c>
+      <c r="B1464" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1464" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1464" t="str">
+        <v>Prachi Pitliya</v>
+      </c>
+      <c r="E1464" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1464" t="str">
+        <v>swim change</v>
+      </c>
+      <c r="G1464" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1464" t="str">
+        <v>CNU423B0DL</v>
+      </c>
+      <c r="I1464" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1464" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465" t="str">
+        <v>Ticket-01464</v>
+      </c>
+      <c r="B1465" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1465" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1465" t="str">
+        <v>Gurbachan Singh</v>
+      </c>
+      <c r="E1465" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1465" t="str">
+        <v>swim change</v>
+      </c>
+      <c r="G1465" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1465" t="str">
+        <v>5CG5133LJ1</v>
+      </c>
+      <c r="I1465" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1465" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466" t="str">
+        <v>Ticket-01465</v>
+      </c>
+      <c r="B1466" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1466" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1466" t="str">
+        <v>Nitin Beohar</v>
+      </c>
+      <c r="E1466" t="str">
+        <v>Allocation</v>
+      </c>
+      <c r="F1466" t="str">
+        <v>sim card allocate</v>
+      </c>
+      <c r="G1466" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1466" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1466" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1466" t="str">
+        <v>9560948666</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467" t="str">
+        <v>Ticket-01466</v>
+      </c>
+      <c r="B1467" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1467" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1467" t="str">
+        <v>Sanjay Singh</v>
+      </c>
+      <c r="E1467" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1467" t="str">
+        <v>varun monga pst requirement</v>
+      </c>
+      <c r="G1467" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1467" t="str">
+        <v>48SJ5S2</v>
+      </c>
+      <c r="I1467" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1467" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" t="str">
+        <v>Ticket-01467</v>
+      </c>
+      <c r="B1468" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1468" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1468" t="str">
+        <v>Nadeem Khan</v>
+      </c>
+      <c r="E1468" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1468" t="str">
+        <v>scan folder create</v>
+      </c>
+      <c r="G1468" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1468" t="str">
+        <v>4T0WKV1</v>
+      </c>
+      <c r="I1468" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1468" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" t="str">
+        <v>Ticket-01468</v>
+      </c>
+      <c r="B1469" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1469" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1469" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="E1469" t="str">
+        <v>New Requirement</v>
+      </c>
+      <c r="F1469" t="str">
+        <v>new laptop raedy</v>
+      </c>
+      <c r="G1469" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1469" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1469" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1469" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470" t="str">
+        <v>Ticket-01469</v>
+      </c>
+      <c r="B1470" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1470" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1470" t="str">
+        <v>Samridhi Pandey</v>
+      </c>
+      <c r="E1470" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1470" t="str">
+        <v>swim change</v>
+      </c>
+      <c r="G1470" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1470" t="str">
+        <v>FG45F12</v>
+      </c>
+      <c r="I1470" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1470" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471" t="str">
+        <v>Ticket-01470</v>
+      </c>
+      <c r="B1471" s="1">
+        <v>45051</v>
+      </c>
+      <c r="C1471" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1471" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="E1471" t="str">
+        <v>New Requirement</v>
+      </c>
+      <c r="F1471" t="str">
+        <v xml:space="preserve">new laptop ready </v>
+      </c>
+      <c r="G1471" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1471" t="str">
+        <v>CDP-DTP-003</v>
+      </c>
+      <c r="I1471" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1471" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472" t="str">
+        <v>Ticket-01471</v>
+      </c>
+      <c r="B1472" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1472" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1472" t="str">
+        <v>Deepak Behera</v>
+      </c>
+      <c r="E1472" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1472" t="str">
+        <v xml:space="preserve">Qz tray Issues </v>
+      </c>
+      <c r="G1472" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1472" t="str">
+        <v>DKG1T32</v>
+      </c>
+      <c r="I1472" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1472" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473" t="str">
+        <v>Ticket-01472</v>
+      </c>
+      <c r="B1473" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1473" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1473" t="str">
+        <v>Jayprakash</v>
+      </c>
+      <c r="E1473" t="str">
+        <v>Other</v>
+      </c>
+      <c r="F1473" t="str">
+        <v xml:space="preserve">Printer Driver </v>
+      </c>
+      <c r="G1473" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1473" t="str">
+        <v>R9Y7RKX</v>
+      </c>
+      <c r="I1473" t="str">
+        <v>abhishek01</v>
+      </c>
+      <c r="J1473" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474" t="str">
+        <v>Ticket-01473</v>
+      </c>
+      <c r="B1474" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1474" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1474" t="str">
+        <v>Rahul Rawat</v>
+      </c>
+      <c r="E1474" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1474" t="str">
+        <v>Desktop not show anything</v>
+      </c>
+      <c r="G1474" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1474" t="str">
+        <v>DTFMPH2</v>
+      </c>
+      <c r="I1474" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1474" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475" t="str">
+        <v>Ticket-01474</v>
+      </c>
+      <c r="B1475" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1475" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1475" t="str">
+        <v>Jyoti Panday</v>
+      </c>
+      <c r="E1475" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1475" t="str">
+        <v>swim change</v>
+      </c>
+      <c r="G1475" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1475" t="str">
+        <v>CNU425BZXR</v>
+      </c>
+      <c r="I1475" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1475" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476" t="str">
+        <v>Ticket-01475</v>
+      </c>
+      <c r="B1476" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1476" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1476" t="str">
+        <v>Mamta Kumari</v>
+      </c>
+      <c r="E1476" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1476" t="str">
+        <v>swim change</v>
+      </c>
+      <c r="G1476" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1476" t="str">
+        <v>7XMHVP2</v>
+      </c>
+      <c r="I1476" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1476" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477" t="str">
+        <v>Ticket-01476</v>
+      </c>
+      <c r="B1477" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1477" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1477" t="str">
+        <v>Pooja Khandelwal</v>
+      </c>
+      <c r="E1477" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1477" t="str">
+        <v>Laptop backup in hdd17</v>
+      </c>
+      <c r="G1477" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1477" t="str">
+        <v>CNU3269PGK</v>
+      </c>
+      <c r="I1477" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1477" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478" t="str">
+        <v>Ticket-01477</v>
+      </c>
+      <c r="B1478" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1478" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1478" t="str">
+        <v>Arsheen Kaur</v>
+      </c>
+      <c r="E1478" t="str">
+        <v>Software</v>
+      </c>
+      <c r="F1478" t="str">
+        <v>laptop backup in hdd 17</v>
+      </c>
+      <c r="G1478" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1478" t="str">
+        <v>R90FJLTC</v>
+      </c>
+      <c r="I1478" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1478" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479" t="str">
+        <v>Ticket-01478</v>
+      </c>
+      <c r="B1479" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C1479" t="str">
+        <v>Closed</v>
+      </c>
+      <c r="D1479" t="str">
+        <v>IT SUPPORT</v>
+      </c>
+      <c r="E1479" t="str">
+        <v>Connectivity</v>
+      </c>
+      <c r="F1479" t="str">
+        <v>complain lock for ggn1 internet not working</v>
+      </c>
+      <c r="G1479" t="str">
+        <v>Normal</v>
+      </c>
+      <c r="H1479" t="str">
+        <v>Other</v>
+      </c>
+      <c r="I1479" t="str">
+        <v>yuvraj01</v>
+      </c>
+      <c r="J1479" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J1456"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J1479"/>
   </ignoredErrors>
 </worksheet>
 </file>